--- a/data/predictions/preds_answerFromTable_mcot.xlsx
+++ b/data/predictions/preds_answerFromTable_mcot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,16 @@
           <t>label</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>derivation</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -466,6 +476,12 @@
           <t>['146']</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>million</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -487,6 +503,16 @@
       <c r="C3" t="n">
         <v>3980.6</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>million</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1,536.7+1,378.2+1,065.7</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -504,6 +530,8 @@
           <t>['Operating profit', 'Adjustments']</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -523,6 +551,12 @@
       </c>
       <c r="C5" t="n">
         <v>0.96</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">109.7/(0.41*278.29) </t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -551,6 +585,16 @@
       <c r="C6" t="n">
         <v>-0.05</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(51.2/157.4)-(51.5/158.1)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -567,6 +611,16 @@
       </c>
       <c r="C7" t="n">
         <v>51.49</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>($3,341/$6,489)</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -588,6 +642,16 @@
       <c r="C8" t="n">
         <v>149.68</v>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1,930 - 773)/773 </t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -605,6 +669,8 @@
           <t>['May']</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -619,6 +685,16 @@
       </c>
       <c r="C10" t="n">
         <v>4.9</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>million</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>51.3-46.4</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -638,6 +714,16 @@
       </c>
       <c r="C11" t="n">
         <v>1162802.5</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>thousand</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(1,203,980 + 1,121,625) / 2</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -659,6 +745,16 @@
       <c r="C12" t="n">
         <v>972</v>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>thousand</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4,674 - 3,702 </t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -677,6 +773,16 @@
       <c r="C13" t="n">
         <v>6.98</v>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>$124,665/$1,786,362</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -694,6 +800,12 @@
           <t>['(1,591)', '1,007']</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>thousand</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -714,6 +826,16 @@
       <c r="C15" t="n">
         <v>53.73</v>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$7,462/$13,889 </t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -729,6 +851,12 @@
       <c r="C16" t="inlineStr">
         <is>
           <t>['2018']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>locate and analyze Total operating expenses in row 10</t>
         </is>
       </c>
     </row>
@@ -750,6 +878,16 @@
       <c r="C17" t="n">
         <v>7634.33</v>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>million</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>(6,199+3,820+12,884) / 3</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -767,6 +905,12 @@
           <t>['$8,320', '$12,472']</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>thousand</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -784,6 +928,12 @@
           <t>['235.8', '334.1']</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>million</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -804,6 +954,16 @@
       <c r="C20" t="n">
         <v>-58</v>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>million</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1,450 - 1,508</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -824,6 +984,16 @@
       <c r="C21" t="n">
         <v>78.45</v>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2,199/2,803 </t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -839,6 +1009,16 @@
       <c r="C22" t="n">
         <v>5384</v>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>million</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>$2,653.8  +$2,730.2</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -856,6 +1036,12 @@
           <t>['338']</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>thousand</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -875,6 +1061,16 @@
       </c>
       <c r="C24" t="n">
         <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>(1,895-1,895)/1,895</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -897,6 +1093,16 @@
       <c r="C25" t="n">
         <v>57.86</v>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>62,899 / (62,899 + 45,812)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -916,6 +1122,12 @@
       <c r="C26" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>12,958</t>
         </is>
       </c>
     </row>
@@ -938,6 +1150,12 @@
       <c r="C27" t="n">
         <v>-12324</v>
       </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>957-13,281</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -957,6 +1175,12 @@
       <c r="C28" t="n">
         <v>1.93</v>
       </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1,147,976*9.67)/(881,420*6.53) </t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -972,6 +1196,12 @@
       <c r="C29" t="inlineStr">
         <is>
           <t>['2019']</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>locate and analyze Restricted cash included in other assets, noncurrent in row 5</t>
         </is>
       </c>
     </row>
@@ -996,6 +1226,12 @@
       <c r="C30" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>(0.82+ 0.71+ 0.55)/3</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1013,6 +1249,8 @@
           <t>['2019', '2018', '2017']</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1032,6 +1270,16 @@
       </c>
       <c r="C32" t="n">
         <v>7.2</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>million</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>421.1-413.9</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1054,6 +1302,16 @@
       <c r="C33" t="n">
         <v>0.85</v>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>595,105/701,356</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1071,6 +1329,12 @@
           <t>['6,532']</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>thousand</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1091,6 +1355,16 @@
       <c r="C35" t="n">
         <v>298.08</v>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(207-52)/52 </t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1106,6 +1380,12 @@
       <c r="C36" t="inlineStr">
         <is>
           <t>['2017']</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>$ 14,092&gt;$ 2,526&gt;$ 1,959&gt;$ (724)&gt; $ (11,807)</t>
         </is>
       </c>
     </row>
@@ -1128,6 +1408,16 @@
       <c r="C37" t="n">
         <v>51970</v>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>thousand</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>(50,974 + 52,966) / 2</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1145,6 +1435,12 @@
           <t>4</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Weighted average expected term##Risk-free interest rate##Dividend yield##Volatility</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1160,6 +1456,12 @@
       <c r="C39" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Amortization of right-of-use assets## Interest on lease liabilities</t>
         </is>
       </c>
     </row>
@@ -1180,6 +1482,16 @@
       <c r="C40" t="n">
         <v>85.34</v>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>4,239/4,967</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1196,6 +1508,12 @@
       </c>
       <c r="C41" t="n">
         <v>2810639769</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>3,072,395,752-261,755,983</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1215,6 +1533,12 @@
       <c r="C42" t="n">
         <v>7</v>
       </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">35/5 </t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1229,6 +1553,16 @@
       </c>
       <c r="C43" t="n">
         <v>0.11</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(230+154+106+304)/751,605 </t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -1249,6 +1583,12 @@
       <c r="C44" t="n">
         <v>2248</v>
       </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>(2,248+2,248)/2</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1264,6 +1604,12 @@
       <c r="C45" t="inlineStr">
         <is>
           <t>['2018']</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>$105,959 &gt; $103,884 &gt; $82,253</t>
         </is>
       </c>
     </row>
@@ -1286,6 +1632,16 @@
       <c r="C46" t="n">
         <v>-32.34</v>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>(427,244-631,497)/631,497</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1301,6 +1657,16 @@
       <c r="C47" t="n">
         <v>828035.14</v>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>thousand</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(205,471 / 6.7%) - (176,857 / 7.9%) </t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1318,6 +1684,12 @@
           <t>['197']</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>million</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1340,6 +1712,16 @@
       <c r="C49" t="n">
         <v>153.07</v>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(150,777 - 59,578)/59,578 </t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1362,6 +1744,12 @@
           <t>5</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Cost of sales##Selling, general and administrative expenses##Amortization of purchased intangibles##Restructuring costs##Other income</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1382,6 +1770,16 @@
       <c r="C51" t="n">
         <v>0.5</v>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>million</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>47.7-47.2</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1402,6 +1800,16 @@
       <c r="C52" t="n">
         <v>10.94</v>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>($14,903-$13,433)/$13,433</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1418,6 +1826,16 @@
       </c>
       <c r="C53" t="n">
         <v>12764.5</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>million</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>51,058 / 4</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -1437,6 +1855,16 @@
       </c>
       <c r="C54" t="n">
         <v>3.9</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22.5% - 18.6% </t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -1459,6 +1887,16 @@
       <c r="C55" t="n">
         <v>69.70999999999999</v>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">642/921 </t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1476,6 +1914,16 @@
       </c>
       <c r="C56" t="n">
         <v>0.9</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>million</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>(1.8 + 0) / 2</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -1499,6 +1947,8 @@
           <t>['Trade payables', 'Accruals', 'Social security and other taxes', 'Other payables']</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1521,6 +1971,16 @@
       <c r="C58" t="n">
         <v>3604.67</v>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>million</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>(3,774+3,366+3,674)/3</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1536,6 +1996,12 @@
       <c r="C59" t="inlineStr">
         <is>
           <t>11</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>China##Taiwan##United States##Korea##Europe##Japan##Thailand##Singapore##Malaysia##Philippines##Rest of the World</t>
         </is>
       </c>
     </row>
@@ -1558,6 +2024,12 @@
       <c r="C60" t="n">
         <v>0.8</v>
       </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3,575+3,041)/8,230 </t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1575,6 +2047,12 @@
           <t>['$259']</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>million</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1590,6 +2068,16 @@
       <c r="C62" t="n">
         <v>-3006</v>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>million</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- 1,756 + (-1,250) </t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1605,6 +2093,12 @@
       <c r="C63" t="inlineStr">
         <is>
           <t>['2019']</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Find the year with the higher NOL carryover</t>
         </is>
       </c>
     </row>
@@ -1625,6 +2119,16 @@
       </c>
       <c r="C64" t="n">
         <v>14972</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>thousand</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45,631 + (-30,659) </t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -1647,6 +2151,16 @@
       <c r="C65" t="n">
         <v>50.69</v>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>77,147 / 152,186</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1667,6 +2181,12 @@
       <c r="C66" t="n">
         <v>887816</v>
       </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>548,788+339,028</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1682,6 +2202,12 @@
       <c r="C67" t="inlineStr">
         <is>
           <t>4</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Maximum##Target##Threshold##Below Threshold</t>
         </is>
       </c>
     </row>
@@ -1706,6 +2232,12 @@
       <c r="C68" t="n">
         <v>2.42</v>
       </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">119,499/49,336 </t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1729,6 +2261,12 @@
           <t>6</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Cost of equipment sold## Other cost of sales## Staff costs## Selling and administrative costs## Traffic Expenses## Repair and maintenance</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1746,6 +2284,12 @@
           <t>3</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>transaction related expenses##integration and transformation costs##special items</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1763,6 +2307,12 @@
           <t>['2017']</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>57,357 &gt; 25,878 &gt; 3,780</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1780,6 +2330,12 @@
           <t>['121.8', '117.7']</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>million</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1800,6 +2356,12 @@
       <c r="C73" t="n">
         <v>0.95</v>
       </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 48,866,220/51,297,394</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1819,6 +2381,16 @@
       </c>
       <c r="C74" t="n">
         <v>10160</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>thousand</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,958 + 8,202 </t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -1842,6 +2414,16 @@
       <c r="C75" t="n">
         <v>0.73</v>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20,447/28,031</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1859,6 +2441,12 @@
           <t>['2019']</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>5.1&gt;4.0&gt; 3.9</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1874,6 +2462,16 @@
       <c r="C77" t="n">
         <v>8809</v>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>thousand</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4,354 + 4,455 </t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1891,6 +2489,8 @@
           <t>['thereof Germany', 'thereof international']</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1908,6 +2508,12 @@
           <t>['2018']</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>7.8 %&gt;7.4 %</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1923,6 +2529,12 @@
       <c r="C80" t="inlineStr">
         <is>
           <t>['2017']</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>35.0&gt; 21.0</t>
         </is>
       </c>
     </row>
@@ -1943,6 +2555,16 @@
       <c r="C81" t="n">
         <v>121736</v>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>thousand</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">91,132 + 30,604 </t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1960,6 +2582,12 @@
           <t>9</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Server products and cloud services## Office products and cloud services## Windows## Gaming## Search advertising## LinkedIn## Enterprise Services## Devices## Other</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1977,6 +2605,12 @@
           <t>['$3,944']</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>thousand</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1994,6 +2628,16 @@
       </c>
       <c r="C84" t="n">
         <v>70.37</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1.9/2.7</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -2015,6 +2659,16 @@
       <c r="C85" t="n">
         <v>171.09</v>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>(3,657-1,349)/1,349</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2035,6 +2689,16 @@
       <c r="C86" t="n">
         <v>211471.5</v>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>thousand</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>(215,279 + 207,664) / 2</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2049,6 +2713,16 @@
       </c>
       <c r="C87" t="n">
         <v>1072</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>million</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>446+378+248</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -2069,6 +2743,16 @@
       </c>
       <c r="C88" t="n">
         <v>7.69</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>(28-26)/26</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -2092,6 +2776,16 @@
       <c r="C89" t="n">
         <v>0.63</v>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>(0.9 + 0.8 + 0.2) / 3</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2112,6 +2806,16 @@
       <c r="C90" t="n">
         <v>27.65</v>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(272,098 - 213,159)/213,159 </t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2129,6 +2833,8 @@
           <t>['0.1%']</t>
         </is>
       </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2144,6 +2850,12 @@
       <c r="C92" t="inlineStr">
         <is>
           <t>['2018']</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>24.4% &gt; 23.6% &gt; 23.4%</t>
         </is>
       </c>
     </row>
@@ -2165,6 +2877,12 @@
           <t>['6%', '3%']</t>
         </is>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2182,6 +2900,8 @@
           <t>['$750,000']</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2199,6 +2919,8 @@
           <t>['7,458,266']</t>
         </is>
       </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2221,6 +2943,16 @@
       <c r="C96" t="n">
         <v>4.29</v>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>(128.7-123.4)/123.4</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2238,6 +2970,12 @@
       <c r="C97" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Other current assets##Property, plant and equipment##Other non-current assets##Debt due within one year##Long-term debt</t>
         </is>
       </c>
     </row>
@@ -2262,6 +3000,8 @@
           <t>['1 April', 'Capital contributions arising from share-based payments', 'Contributions received in relation to share-based payments']</t>
         </is>
       </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2282,6 +3022,16 @@
       <c r="C99" t="n">
         <v>45.3</v>
       </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>million</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>180.3-135.0</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2300,6 +3050,12 @@
           <t>['2019']</t>
         </is>
       </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>284,967&gt; 245,733&gt; 240,881</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2315,6 +3071,16 @@
       </c>
       <c r="C101" t="n">
         <v>258002</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>thousand</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">($128,706 + $129,296) </t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/predictions/preds_answerFromTable_mcot.xlsx
+++ b/data/predictions/preds_answerFromTable_mcot.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="404">
   <si>
     <t xml:space="preserve">question_uid</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">['146']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">million</t>
@@ -77,9 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve"> $3,980.6 million</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">1,536.7+1,378.2+1,065.7</t>
@@ -1670,8 +1670,8 @@
   </sheetPr>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F102" activeCellId="0" sqref="F102"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1723,28 +1723,31 @@
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>3980.6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>18</v>
@@ -1827,7 +1830,7 @@
         <v>51.49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>31</v>
@@ -1902,7 +1905,7 @@
         <v>48</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>49</v>
@@ -1922,7 +1925,7 @@
         <v>1162802.5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>53</v>
@@ -2043,7 +2046,7 @@
         <v>74</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>75</v>
@@ -2066,7 +2069,7 @@
         <v>23</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>79</v>
@@ -2086,7 +2089,7 @@
         <v>83</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>53</v>
@@ -2106,10 +2109,10 @@
         <v>87</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,7 +2135,7 @@
         <v>90</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>91</v>
@@ -2178,10 +2181,10 @@
         <v>5384</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>99</v>
@@ -2201,7 +2204,7 @@
         <v>103</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>53</v>
@@ -2221,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>31</v>
@@ -2267,7 +2270,7 @@
         <v>113</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>114</v>
@@ -2287,7 +2290,7 @@
         <v>-12324</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>117</v>
@@ -2350,7 +2353,7 @@
         <v>0.69</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>129</v>
@@ -2370,7 +2373,7 @@
         <v>133</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2387,13 +2390,13 @@
         <v>7.2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>137</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>138</v>
@@ -2413,7 +2416,7 @@
         <v>0.85</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>31</v>
@@ -2436,7 +2439,7 @@
         <v>145</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>53</v>
@@ -2456,7 +2459,7 @@
         <v>298.08</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>31</v>
@@ -2479,7 +2482,7 @@
         <v>152</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>153</v>
@@ -2525,7 +2528,7 @@
         <v>160</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>161</v>
@@ -2545,7 +2548,7 @@
         <v>164</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>165</v>
@@ -2591,7 +2594,7 @@
         <v>2810639769</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>173</v>
@@ -2611,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>176</v>
@@ -2657,7 +2660,7 @@
         <v>2248</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>183</v>
@@ -2700,7 +2703,7 @@
         <v>-32.34</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>31</v>
@@ -2749,10 +2752,10 @@
         <v>199</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,7 +2772,7 @@
         <v>153.07</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>31</v>
@@ -2792,7 +2795,7 @@
         <v>206</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>207</v>
@@ -2812,10 +2815,10 @@
         <v>0.5</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>211</v>
@@ -2864,7 +2867,7 @@
         <v>23</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>219</v>
@@ -2910,7 +2913,7 @@
         <v>69.71</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>31</v>
@@ -2939,7 +2942,7 @@
         <v>24</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>230</v>
@@ -2979,10 +2982,10 @@
         <v>3604.67</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>239</v>
@@ -3002,7 +3005,7 @@
         <v>242</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>243</v>
@@ -3022,7 +3025,7 @@
         <v>0.8</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>247</v>
@@ -3042,10 +3045,10 @@
         <v>251</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,7 +3071,7 @@
         <v>48</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>255</v>
@@ -3088,7 +3091,7 @@
         <v>124</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>258</v>
@@ -3108,7 +3111,7 @@
         <v>14972</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>262</v>
@@ -3160,7 +3163,7 @@
         <v>887816</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>270</v>
@@ -3180,7 +3183,7 @@
         <v>160</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>273</v>
@@ -3200,7 +3203,7 @@
         <v>2.42</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>277</v>
@@ -3220,7 +3223,7 @@
         <v>280</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>281</v>
@@ -3240,7 +3243,7 @@
         <v>284</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>285</v>
@@ -3260,7 +3263,7 @@
         <v>152</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>288</v>
@@ -3280,10 +3283,10 @@
         <v>292</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3300,7 +3303,7 @@
         <v>0.95</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>295</v>
@@ -3320,7 +3323,7 @@
         <v>10160</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>53</v>
@@ -3343,7 +3346,7 @@
         <v>0.73</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>31</v>
@@ -3366,7 +3369,7 @@
         <v>124</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>306</v>
@@ -3386,7 +3389,7 @@
         <v>8809</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>310</v>
@@ -3432,7 +3435,7 @@
         <v>74</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>317</v>
@@ -3452,7 +3455,7 @@
         <v>152</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>320</v>
@@ -3498,7 +3501,7 @@
         <v>327</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>328</v>
@@ -3518,7 +3521,7 @@
         <v>332</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>53</v>
@@ -3538,7 +3541,7 @@
         <v>70.37</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>31</v>
@@ -3619,7 +3622,7 @@
         <v>348</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>349</v>
@@ -3639,7 +3642,7 @@
         <v>7.69</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>31</v>
@@ -3662,7 +3665,7 @@
         <v>0.63</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>262</v>
@@ -3714,7 +3717,7 @@
         <v>365</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3731,7 +3734,7 @@
         <v>74</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>368</v>
@@ -3751,7 +3754,7 @@
         <v>372</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>31</v>
@@ -3771,7 +3774,7 @@
         <v>376</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3788,7 +3791,7 @@
         <v>380</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3805,7 +3808,7 @@
         <v>4.29</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>31</v>
@@ -3868,10 +3871,10 @@
         <v>45.3</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>396</v>
@@ -3891,7 +3894,7 @@
         <v>124</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>399</v>

--- a/data/predictions/preds_answerFromTable_mcot.xlsx
+++ b/data/predictions/preds_answerFromTable_mcot.xlsx
@@ -25,10 +25,10 @@
     <t xml:space="preserve">question_uid</t>
   </si>
   <si>
-    <t xml:space="preserve">gptAnswer_mcot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extractedAnswer_mcot</t>
+    <t xml:space="preserve">gptAnswer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extractedAnswer</t>
   </si>
   <si>
     <t xml:space="preserve">label</t>
@@ -1528,7 +1528,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
     <numFmt numFmtId="166" formatCode="0.00\ %"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1557,12 +1557,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1614,7 +1608,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1627,7 +1621,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1635,7 +1629,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1643,11 +1637,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1671,7 +1661,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3382,7 +3372,7 @@
       <c r="B77" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="4" t="s">
         <v>309</v>
       </c>
       <c r="D77" s="1" t="n">
@@ -3747,7 +3737,7 @@
       <c r="B93" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="7" t="s">
         <v>371</v>
       </c>
       <c r="D93" s="1" t="s">

--- a/data/predictions/preds_answerFromTable_mcot.xlsx
+++ b/data/predictions/preds_answerFromTable_mcot.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="412">
   <si>
     <t xml:space="preserve">question_uid</t>
   </si>
@@ -49,6 +49,30 @@
     <t xml:space="preserve">derivation</t>
   </si>
   <si>
+    <t xml:space="preserve">ValueDetectionError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ScaleError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FormulaError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CalculationError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RoundingError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MissingCalculationError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MisunderstandingError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OtherError</t>
+  </si>
+  <si>
     <t xml:space="preserve">921d80d2-1ea6-4c31-bf06-6393e5ca70ab</t>
   </si>
   <si>
@@ -65,6 +89,9 @@
   </si>
   <si>
     <t xml:space="preserve">million</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
   </si>
   <si>
     <t xml:space="preserve">82233a8d-8e3d-4d17-ae97-ba62b4a8ba70</t>
@@ -95,9 +122,6 @@
   </si>
   <si>
     <t xml:space="preserve">['Operating profit', 'Adjustments']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FALSE</t>
   </si>
   <si>
     <t xml:space="preserve">value detection</t>
@@ -1650,6 +1674,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1658,10 +1699,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1669,6 +1712,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="67.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="37.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="26.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="22.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="25.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="29.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="24.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1699,79 +1750,175 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>3980.6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0.96</v>
@@ -1780,15 +1927,39 @@
         <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="310.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0</v>
@@ -1800,44 +1971,92 @@
         <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>51.49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>149.68</v>
@@ -1846,44 +2065,92 @@
         <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>4.9</v>
@@ -1892,47 +2159,95 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>1162802.5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>972</v>
@@ -1941,24 +2256,48 @@
         <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>6.98</v>
@@ -1967,47 +2306,95 @@
         <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>53.73</v>
@@ -2016,41 +2403,89 @@
         <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>7634.33</v>
@@ -2059,58 +2494,130 @@
         <v>23</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>58</v>
@@ -2122,24 +2629,48 @@
         <v>23</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>78.45</v>
@@ -2148,64 +2679,136 @@
         <v>23</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>5384</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>0</v>
@@ -2214,24 +2817,48 @@
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>57.86</v>
@@ -2240,38 +2867,86 @@
         <v>23</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>-12.324</v>
@@ -2280,21 +2955,45 @@
         <v>-12324</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>1.93</v>
@@ -2303,101 +3002,221 @@
         <v>23</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>0.69</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>7.2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>0.848</v>
@@ -2406,87 +3225,183 @@
         <v>0.85</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>298.08</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>2017</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>51970</v>
@@ -2498,61 +3413,133 @@
         <v>7</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>165</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>173</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>85.34</v>
@@ -2561,41 +3548,89 @@
         <v>23</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>2810639769</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>7</v>
@@ -2604,21 +3639,45 @@
         <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q42" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>0.11</v>
@@ -2627,90 +3686,186 @@
         <v>23</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q43" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>2248</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>191</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q44" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>196</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q45" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>-32.34</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>828035.14</v>
@@ -2719,110 +3874,230 @@
         <v>23</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P47" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q48" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>153.07</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>215</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q50" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>219</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q51" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>10.94</v>
@@ -2831,24 +4106,48 @@
         <v>23</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q52" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>12764.5</v>
@@ -2857,21 +4156,45 @@
         <v>23</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>227</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P53" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q53" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>3.9</v>
@@ -2880,47 +4203,95 @@
         <v>23</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>231</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O54" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P54" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q54" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>69.71</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>235</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O55" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P55" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q55" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>0.9</v>
@@ -2929,127 +4300,271 @@
         <v>23</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>238</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O56" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P56" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q56" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>243</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N57" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O57" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P57" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q57" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>3604.67</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>239</v>
+        <v>247</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N58" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O58" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P58" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q58" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>11</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>251</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q59" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q60" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O61" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P61" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q61" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>-3006</v>
@@ -3058,67 +4573,139 @@
         <v>23</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>263</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N62" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O62" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P62" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q62" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>2019</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>266</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O63" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P63" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q63" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>14972</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>271</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N64" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O64" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P64" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q64" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C65" s="3" t="n">
         <v>0.559</v>
@@ -3130,21 +4717,45 @@
         <v>23</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>275</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M65" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N65" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O65" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P65" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q65" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C66" s="3" t="n">
         <v>887.816</v>
@@ -3153,138 +4764,306 @@
         <v>887816</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>270</v>
+        <v>278</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O66" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P66" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q66" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>281</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L67" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M67" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O67" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P67" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q67" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>2.42</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>277</v>
+        <v>285</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N68" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O68" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P68" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q68" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>6</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>281</v>
+        <v>289</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M69" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N69" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O69" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P69" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q69" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>293</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L70" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M70" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N70" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O70" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P70" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q70" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>2017</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>288</v>
+        <v>296</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L71" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M71" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O71" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P71" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q71" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M72" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N72" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O72" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P72" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q72" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C73" s="3" t="n">
         <v>0.953</v>
@@ -3293,173 +5072,365 @@
         <v>0.95</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>303</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M73" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N73" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O73" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P73" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q73" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>10160</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>307</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M74" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N74" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O74" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P74" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q74" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>0.73</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>311</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M75" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N75" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O75" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P75" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q75" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>2019</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>314</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L76" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M76" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N76" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O76" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P76" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q76" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>8809</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>319</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L77" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M77" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N77" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O77" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P77" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q77" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>243</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L78" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M78" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N78" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O78" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P78" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q78" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L79" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M79" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N79" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O79" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P79" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q79" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>2017</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>328</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L80" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M80" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N80" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O80" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P80" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q80" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>121736</v>
@@ -3471,84 +5442,180 @@
         <v>7</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>324</v>
+        <v>332</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L81" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M81" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N81" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O81" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P81" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q81" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>9</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>328</v>
+        <v>336</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N82" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O82" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P82" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q82" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L83" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M83" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N83" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O83" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P83" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q83" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>70.37</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>344</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q84" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>171.09</v>
@@ -3557,24 +5624,48 @@
         <v>23</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>348</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L85" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M85" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N85" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="O85" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P85" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q85" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>211471.5</v>
@@ -3586,21 +5677,45 @@
         <v>7</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>352</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L86" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M86" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N86" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O86" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P86" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q86" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="D87" s="1" t="n">
         <v>1072</v>
@@ -3609,73 +5724,145 @@
         <v>23</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>357</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L87" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M87" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N87" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O87" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P87" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q87" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>7.69</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>361</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q88" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D89" s="1" t="n">
         <v>0.63</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>365</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L89" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M89" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N89" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O89" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P89" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q89" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>27.65</v>
@@ -3684,221 +5871,485 @@
         <v>23</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>369</v>
+      </c>
+      <c r="J90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N90" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="O90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q90" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L91" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M91" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N91" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O91" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P91" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q91" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>376</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q92" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q93" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q94" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="J95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q95" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D96" s="1" t="n">
         <v>4.29</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+      <c r="J96" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K96" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L96" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M96" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N96" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O96" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P96" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q96" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>6</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>387</v>
+        <v>395</v>
+      </c>
+      <c r="J97" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K97" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L97" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M97" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N97" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O97" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P97" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q97" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>400</v>
+      </c>
+      <c r="J98" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K98" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L98" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M98" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N98" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O98" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P98" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q98" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D99" s="1" t="n">
         <v>45.3</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>404</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K99" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L99" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M99" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N99" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O99" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P99" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q99" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>2019</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>407</v>
+      </c>
+      <c r="J100" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L100" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M100" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N100" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O100" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P100" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q100" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>258002</v>
@@ -3910,10 +6361,34 @@
         <v>7</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>403</v>
+        <v>411</v>
+      </c>
+      <c r="J101" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K101" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L101" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M101" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N101" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O101" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P101" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q101" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
